--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Slovak</t>
   </si>
@@ -51,6 +51,51 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>cau</t>
+  </si>
+  <si>
+    <t>germanAdvanced</t>
+  </si>
+  <si>
+    <t>sack</t>
+  </si>
+  <si>
+    <t>sak</t>
+  </si>
+  <si>
+    <t>vajcia</t>
+  </si>
+  <si>
+    <t>eier</t>
+  </si>
+  <si>
+    <t>cus</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>tomas</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>katka</t>
+  </si>
+  <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -389,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +446,7 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -428,20 +474,80 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16">
+      <formula1>$J$14:$J$15</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tags!$B$2:$B$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,11 +576,34 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lang!$B$2:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -519,24 +648,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Users!$B$2:$B$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tags!$B$2:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Slovak</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>anonymousUser</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -648,16 +651,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,9 +690,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -700,14 +714,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -741,6 +756,22 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Words" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Slovak</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>anonymousUser</t>
+  </si>
+  <si>
+    <t>spandau</t>
+  </si>
+  <si>
+    <t>icke</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +525,20 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -549,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Words" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Slovak</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>icke</t>
+  </si>
+  <si>
+    <t>fikat</t>
+  </si>
+  <si>
+    <t>bumsen</t>
+  </si>
+  <si>
+    <t>katkaZakladyNemciny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pichat </t>
+  </si>
+  <si>
+    <t>ficken</t>
   </si>
 </sst>
 </file>
@@ -443,17 +458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
@@ -540,6 +555,34 @@
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -567,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +654,17 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +728,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Slovak</t>
   </si>
@@ -788,10 +788,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,15 +837,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Slovak</t>
   </si>
@@ -613,7 +613,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,10 +788,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +837,14 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Slovak</t>
   </si>
@@ -38,9 +38,6 @@
     <t>hallo</t>
   </si>
   <si>
-    <t>germanBase</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>cau</t>
   </si>
   <si>
-    <t>germanAdvanced</t>
-  </si>
-  <si>
     <t>sack</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>kat</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>anonymousUser</t>
   </si>
   <si>
@@ -113,21 +101,50 @@
     <t>bumsen</t>
   </si>
   <si>
-    <t>katkaZakladyNemciny</t>
-  </si>
-  <si>
     <t xml:space="preserve">pichat </t>
   </si>
   <si>
     <t>ficken</t>
+  </si>
+  <si>
+    <t>germanBase1</t>
+  </si>
+  <si>
+    <t>germanBase2</t>
+  </si>
+  <si>
+    <t>germanBase3</t>
+  </si>
+  <si>
+    <t>englishBase1</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,12 +168,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -458,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,13 +548,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,13 +576,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,13 +604,69 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -610,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -650,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -664,7 +748,18 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +823,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,10 +859,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,71 +895,65 @@
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Tags!$B$2:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Users!$B$2:$B$33</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Tags!$B$2:$B$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Words" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -177,14 +177,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -488,12 +504,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="5"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
@@ -502,21 +519,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -530,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -544,7 +561,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -558,7 +575,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -572,7 +589,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -586,7 +603,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -600,7 +617,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -614,7 +631,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -628,7 +645,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -642,7 +659,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -656,7 +673,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -885,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wordteacher-dbmantain/src/main/resources/masterData.xlsx
+++ b/wordteacher-dbmantain/src/main/resources/masterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Words" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="2714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="2725">
   <si>
     <t>Slovak</t>
   </si>
@@ -8160,6 +8160,39 @@
   </si>
   <si>
     <t xml:space="preserve">heavy rain </t>
+  </si>
+  <si>
+    <t>ne ernstgemeinte frage</t>
+  </si>
+  <si>
+    <t>in kauf nehmen</t>
+  </si>
+  <si>
+    <t>keine hand und fuss</t>
+  </si>
+  <si>
+    <t>der springende punkt</t>
+  </si>
+  <si>
+    <t>vazna otazka</t>
+  </si>
+  <si>
+    <t>risknut</t>
+  </si>
+  <si>
+    <t>nema to hlavu ani patu</t>
+  </si>
+  <si>
+    <t>dolezity bod</t>
+  </si>
+  <si>
+    <t>za kazdu cenu</t>
+  </si>
+  <si>
+    <t>um jeden preis</t>
+  </si>
+  <si>
+    <t>GermanUrban1</t>
   </si>
 </sst>
 </file>
@@ -8533,17 +8566,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1370"/>
+  <dimension ref="A1:D1375"/>
   <sheetViews>
-    <sheetView topLeftCell="A1345" workbookViewId="0">
-      <selection activeCell="D1370" sqref="D1370"/>
+    <sheetView tabSelected="1" topLeftCell="A1354" workbookViewId="0">
+      <selection activeCell="B1374" sqref="B1374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
@@ -27727,6 +27760,76 @@
       </c>
       <c r="D1370" t="s">
         <v>2605</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>1370</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>1371</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>1372</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>1373</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>1374</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>2724</v>
       </c>
     </row>
   </sheetData>
@@ -27754,10 +27857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27930,6 +28033,17 @@
       </c>
       <c r="C15" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -28058,10 +28172,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28092,7 +28206,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -28101,6 +28215,14 @@
       </c>
       <c r="B4" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2724</v>
       </c>
     </row>
   </sheetData>
@@ -28113,13 +28235,13 @@
           <x14:formula1>
             <xm:f>Tags!$B$2:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B1048576</xm:sqref>
+          <xm:sqref>B6:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tags!$B$2:$B$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 B3:B4</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
